--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt2-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt2-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Fzd5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.520808</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H2">
-        <v>7.562424</v>
+        <v>0.032107</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.004227647500550067</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.004227647500550067</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.000565</v>
+        <v>2.133443333333334</v>
       </c>
       <c r="N2">
-        <v>30.001695</v>
+        <v>6.40033</v>
       </c>
       <c r="O2">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="P2">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="Q2">
-        <v>25.20950425652</v>
+        <v>0.02283282170111111</v>
       </c>
       <c r="R2">
-        <v>226.88553830868</v>
+        <v>0.20549539531</v>
       </c>
       <c r="S2">
-        <v>0.6316353758144477</v>
+        <v>0.001101702912468753</v>
       </c>
       <c r="T2">
-        <v>0.6316353758144477</v>
+        <v>0.001101702912468753</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.520808</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H3">
-        <v>7.562424</v>
+        <v>0.032107</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.004227647500550067</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.004227647500550067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.79438</v>
       </c>
       <c r="O3">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846115</v>
       </c>
       <c r="P3">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846116</v>
       </c>
       <c r="Q3">
-        <v>10.75072515301333</v>
+        <v>0.04564323985111111</v>
       </c>
       <c r="R3">
-        <v>96.75652637712</v>
+        <v>0.41078915866</v>
       </c>
       <c r="S3">
-        <v>0.2693642149089528</v>
+        <v>0.002202324834693205</v>
       </c>
       <c r="T3">
-        <v>0.2693642149089528</v>
+        <v>0.002202324834693205</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,247 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
+        <v>0.01070233333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.032107</v>
+      </c>
+      <c r="I4">
+        <v>0.004227647500550067</v>
+      </c>
+      <c r="J4">
+        <v>0.004227647500550067</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.788586</v>
+      </c>
+      <c r="N4">
+        <v>5.365758</v>
+      </c>
+      <c r="O4">
+        <v>0.2184713255464024</v>
+      </c>
+      <c r="P4">
+        <v>0.2184713255464024</v>
+      </c>
+      <c r="Q4">
+        <v>0.01914204356733333</v>
+      </c>
+      <c r="R4">
+        <v>0.172278392106</v>
+      </c>
+      <c r="S4">
+        <v>0.0009236197533881081</v>
+      </c>
+      <c r="T4">
+        <v>0.0009236197533881083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>2.520808</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>7.562424</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.567455</v>
-      </c>
-      <c r="N4">
-        <v>4.702364999999999</v>
-      </c>
-      <c r="O4">
-        <v>0.09900040927659938</v>
-      </c>
-      <c r="P4">
-        <v>0.09900040927659938</v>
-      </c>
-      <c r="Q4">
-        <v>3.95125310364</v>
-      </c>
-      <c r="R4">
-        <v>35.56127793276</v>
-      </c>
-      <c r="S4">
-        <v>0.09900040927659938</v>
-      </c>
-      <c r="T4">
-        <v>0.09900040927659938</v>
+      <c r="I5">
+        <v>0.99577235249945</v>
+      </c>
+      <c r="J5">
+        <v>0.99577235249945</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2.133443333333334</v>
+      </c>
+      <c r="N5">
+        <v>6.40033</v>
+      </c>
+      <c r="O5">
+        <v>0.2605947899689859</v>
+      </c>
+      <c r="P5">
+        <v>0.2605947899689859</v>
+      </c>
+      <c r="Q5">
+        <v>5.378001022213335</v>
+      </c>
+      <c r="R5">
+        <v>48.40200919992</v>
+      </c>
+      <c r="S5">
+        <v>0.2594930870565172</v>
+      </c>
+      <c r="T5">
+        <v>0.2594930870565172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.520808</v>
+      </c>
+      <c r="H6">
+        <v>7.562424</v>
+      </c>
+      <c r="I6">
+        <v>0.99577235249945</v>
+      </c>
+      <c r="J6">
+        <v>0.99577235249945</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4.264793333333333</v>
+      </c>
+      <c r="N6">
+        <v>12.79438</v>
+      </c>
+      <c r="O6">
+        <v>0.5209338844846115</v>
+      </c>
+      <c r="P6">
+        <v>0.5209338844846116</v>
+      </c>
+      <c r="Q6">
+        <v>10.75072515301333</v>
+      </c>
+      <c r="R6">
+        <v>96.75652637712</v>
+      </c>
+      <c r="S6">
+        <v>0.5187315596499184</v>
+      </c>
+      <c r="T6">
+        <v>0.5187315596499185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.520808</v>
+      </c>
+      <c r="H7">
+        <v>7.562424</v>
+      </c>
+      <c r="I7">
+        <v>0.99577235249945</v>
+      </c>
+      <c r="J7">
+        <v>0.99577235249945</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.788586</v>
+      </c>
+      <c r="N7">
+        <v>5.365758</v>
+      </c>
+      <c r="O7">
+        <v>0.2184713255464024</v>
+      </c>
+      <c r="P7">
+        <v>0.2184713255464024</v>
+      </c>
+      <c r="Q7">
+        <v>4.508681897488</v>
+      </c>
+      <c r="R7">
+        <v>40.578137077392</v>
+      </c>
+      <c r="S7">
+        <v>0.2175477057930143</v>
+      </c>
+      <c r="T7">
+        <v>0.2175477057930143</v>
       </c>
     </row>
   </sheetData>
